--- a/biology/Médecine/Charles_Peyssonnel/Charles_Peyssonnel.xlsx
+++ b/biology/Médecine/Charles_Peyssonnel/Charles_Peyssonnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Peyssonnel, né à Marseille vers 1640 et mort de la peste à Marseille le 20 septembre 1720, est un médecin marseillais.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Peyssonnel issu d'une famille de médecins est lui-même médecin. Il a deux fils : Jean André Peyssonnel (1694-1759), médecin et naturaliste, et Charles de Peyssonnel (1700-1757), avocat et diplomate.
-Ancien élève des Oratoriens, il reste fidèle à ses maîtres et sera poursuivi comme Janséniste et condamné par l'intendant de Provence le 12 février 1689 à sept ans de bannissement hors du royaume et à 1 500 livres d'amende. Il s'exile au Caire en Égypte où il exerce la médecine[1]. Il séjourne également en Tunisie de 1697 à 1699. Rentré à Marseille, il est en 1720 le doyen des médecins. Il exerce les fonctions de médecin chef de l'Hôtel-Dieu. Durant la peste de 1720 il est le premier à diagnostiquer officiellement la peste le 9 juillet 1720 en examinant un enfant malade rue Jean-Galant et alerte les échevins[2]. Il aura une attitude admirable et décédera de la peste, victime de son dévouement.
+Ancien élève des Oratoriens, il reste fidèle à ses maîtres et sera poursuivi comme Janséniste et condamné par l'intendant de Provence le 12 février 1689 à sept ans de bannissement hors du royaume et à 1 500 livres d'amende. Il s'exile au Caire en Égypte où il exerce la médecine. Il séjourne également en Tunisie de 1697 à 1699. Rentré à Marseille, il est en 1720 le doyen des médecins. Il exerce les fonctions de médecin chef de l'Hôtel-Dieu. Durant la peste de 1720 il est le premier à diagnostiquer officiellement la peste le 9 juillet 1720 en examinant un enfant malade rue Jean-Galant et alerte les échevins. Il aura une attitude admirable et décédera de la peste, victime de son dévouement.
 </t>
         </is>
       </c>
